--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_397__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_397__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,52 +5873,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>13.15636825561523</c:v>
+                  <c:v>13.1563663482666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.19047927856445</c:v>
+                  <c:v>32.19048309326172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.63289356231689</c:v>
+                  <c:v>-14.63289165496826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.3856902718544006</c:v>
+                  <c:v>-0.3856925964355469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.10658836364746</c:v>
+                  <c:v>27.1065845489502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.46886825561523</c:v>
+                  <c:v>41.46886444091797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.83319091796875</c:v>
+                  <c:v>35.83319473266602</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>34.2305793762207</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.861729621887207</c:v>
+                  <c:v>7.861735343933105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.33781814575195</c:v>
+                  <c:v>18.33781242370605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.26912498474121</c:v>
+                  <c:v>24.26911926269531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.47410202026367</c:v>
+                  <c:v>30.47409820556641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.69219017028809</c:v>
+                  <c:v>17.69219398498535</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21.86886215209961</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.57082176208496</c:v>
+                  <c:v>31.57082366943359</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.68928718566895</c:v>
+                  <c:v>16.68928337097168</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>13.67111206054688</c:v>
@@ -5927,61 +5927,61 @@
                   <c:v>6.240362167358398</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.672882556915283</c:v>
+                  <c:v>-5.67287540435791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.81882667541504</c:v>
+                  <c:v>20.81882858276367</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>33.0592041015625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.52458763122559</c:v>
+                  <c:v>19.52458190917969</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.35161781311035</c:v>
+                  <c:v>27.35162162780762</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.89874267578125</c:v>
+                  <c:v>24.89874458312988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.237412214279175</c:v>
+                  <c:v>-2.237416982650757</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>49.95388793945312</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.24979400634766</c:v>
+                  <c:v>21.24978637695312</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.845799446105957</c:v>
+                  <c:v>8.845791816711426</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.50044059753418</c:v>
+                  <c:v>30.50044822692871</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.37716293334961</c:v>
+                  <c:v>12.37715816497803</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.28831672668457</c:v>
+                  <c:v>18.2883243560791</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.092529296875</c:v>
+                  <c:v>17.09252738952637</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-19.29018974304199</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.64238166809082</c:v>
+                  <c:v>30.64238548278809</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>68.15891265869141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.6488208770752</c:v>
+                  <c:v>15.64882373809814</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-19.75005912780762</c:v>
+                  <c:v>-19.75006294250488</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>34.37704849243164</c:v>
@@ -5990,10 +5990,10 @@
                   <c:v>15.4217586517334</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.20754051208496</c:v>
+                  <c:v>31.20754432678223</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.20006370544434</c:v>
+                  <c:v>19.20006561279297</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>38.5670166015625</c:v>
@@ -6002,13 +6002,13 @@
                   <c:v>30.51078414916992</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.89348220825195</c:v>
+                  <c:v>26.89348602294922</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15.77138805389404</c:v>
+                  <c:v>15.77139282226562</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.05679225921631</c:v>
+                  <c:v>11.05678081512451</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>28.68623542785645</c:v>
@@ -6017,22 +6017,22 @@
                   <c:v>17.61236190795898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.68447875976562</c:v>
+                  <c:v>37.68447494506836</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19.54482269287109</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.930092811584473</c:v>
+                  <c:v>9.930096626281738</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>15.35475826263428</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20.58790397644043</c:v>
+                  <c:v>20.58790016174316</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.44800186157227</c:v>
+                  <c:v>16.44800567626953</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>22.20418548583984</c:v>
@@ -6041,127 +6041,127 @@
                   <c:v>35.50566864013672</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.41603755950928</c:v>
+                  <c:v>12.41603374481201</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43.17789459228516</c:v>
+                  <c:v>43.17790222167969</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-19.56019401550293</c:v>
+                  <c:v>-19.56018447875977</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.67201995849609</c:v>
+                  <c:v>26.67202186584473</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>18.46241188049316</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42.45384979248047</c:v>
+                  <c:v>42.453857421875</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18.04667663574219</c:v>
+                  <c:v>18.04668045043945</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>38.69679641723633</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1775443255901337</c:v>
+                  <c:v>0.177548959851265</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>25.10717391967773</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>36.98378753662109</c:v>
+                  <c:v>36.98377990722656</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.108255386352539</c:v>
+                  <c:v>8.10825252532959</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.51455307006836</c:v>
+                  <c:v>14.51455116271973</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18.83494758605957</c:v>
+                  <c:v>18.83495330810547</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>16.40367126464844</c:v>
+                  <c:v>16.40366744995117</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11.19492530822754</c:v>
+                  <c:v>11.19491863250732</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.494935989379883</c:v>
+                  <c:v>8.494936943054199</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>16.94327163696289</c:v>
+                  <c:v>16.94326782226562</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>22.46086311340332</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28.07346725463867</c:v>
+                  <c:v>28.07345771789551</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.74668979644775</c:v>
+                  <c:v>10.7466869354248</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>21.38062477111816</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.281813621521</c:v>
+                  <c:v>11.28181552886963</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>64.57098388671875</c:v>
+                  <c:v>64.57099151611328</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.78353309631348</c:v>
+                  <c:v>13.78353118896484</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17.40460586547852</c:v>
+                  <c:v>17.40460777282715</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>47.72483062744141</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>31.70296478271484</c:v>
+                  <c:v>31.70296096801758</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>11.05237579345703</c:v>
+                  <c:v>11.05237865447998</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>31.15717506408691</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>41.46406173706055</c:v>
+                  <c:v>41.46405792236328</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36.45261383056641</c:v>
+                  <c:v>36.45261001586914</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19.81886100769043</c:v>
+                  <c:v>19.8188648223877</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.645190238952637</c:v>
+                  <c:v>9.64519214630127</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.05052852630615</c:v>
+                  <c:v>15.05052947998047</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>27.18919563293457</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18.10699844360352</c:v>
+                  <c:v>18.10700035095215</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>23.31740570068359</c:v>
+                  <c:v>23.31741142272949</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>-25.89847373962402</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>30.17190933227539</c:v>
+                  <c:v>30.17190551757812</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>24.90382385253906</c:v>
+                  <c:v>24.90383148193359</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>19.42394638061523</c:v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.15636825561523</v>
+        <v>13.1563663482666</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>32.19047927856445</v>
+        <v>32.19048309326172</v>
       </c>
       <c r="G3">
         <v>96</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-14.63289356231689</v>
+        <v>-14.63289165496826</v>
       </c>
       <c r="G4">
         <v>96</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3856902718544006</v>
+        <v>-0.3856925964355469</v>
       </c>
       <c r="G5">
         <v>96</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>27.10658836364746</v>
+        <v>27.1065845489502</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.46886825561523</v>
+        <v>41.46886444091797</v>
       </c>
       <c r="G7">
         <v>96</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.83319091796875</v>
+        <v>35.83319473266602</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.861729621887207</v>
+        <v>7.861735343933105</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.33781814575195</v>
+        <v>18.33781242370605</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.26912498474121</v>
+        <v>24.26911926269531</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>30.47410202026367</v>
+        <v>30.47409820556641</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.69219017028809</v>
+        <v>17.69219398498535</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>31.57082176208496</v>
+        <v>31.57082366943359</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>16.68928718566895</v>
+        <v>16.68928337097168</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>-5.672882556915283</v>
+        <v>-5.67287540435791</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.81882667541504</v>
+        <v>20.81882858276367</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.52458763122559</v>
+        <v>19.52458190917969</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.35161781311035</v>
+        <v>27.35162162780762</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.89874267578125</v>
+        <v>24.89874458312988</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-2.237412214279175</v>
+        <v>-2.237416982650757</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>21.24979400634766</v>
+        <v>21.24978637695312</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.845799446105957</v>
+        <v>8.845791816711426</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>30.50044059753418</v>
+        <v>30.50044822692871</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>12.37716293334961</v>
+        <v>12.37715816497803</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>18.28831672668457</v>
+        <v>18.2883243560791</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>17.092529296875</v>
+        <v>17.09252738952637</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>30.64238166809082</v>
+        <v>30.64238548278809</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>15.6488208770752</v>
+        <v>15.64882373809814</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-19.75005912780762</v>
+        <v>-19.75006294250488</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>31.20754051208496</v>
+        <v>31.20754432678223</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>19.20006370544434</v>
+        <v>19.20006561279297</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>26.89348220825195</v>
+        <v>26.89348602294922</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>15.77138805389404</v>
+        <v>15.77139282226562</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>11.05679225921631</v>
+        <v>11.05678081512451</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>37.68447875976562</v>
+        <v>37.68447494506836</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>9.930092811584473</v>
+        <v>9.930096626281738</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>20.58790397644043</v>
+        <v>20.58790016174316</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>16.44800186157227</v>
+        <v>16.44800567626953</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>12.41603755950928</v>
+        <v>12.41603374481201</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>43.17789459228516</v>
+        <v>43.17790222167969</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>-19.56019401550293</v>
+        <v>-19.56018447875977</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>26.67201995849609</v>
+        <v>26.67202186584473</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>42.45384979248047</v>
+        <v>42.453857421875</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>18.04667663574219</v>
+        <v>18.04668045043945</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>0.1775443255901337</v>
+        <v>0.177548959851265</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>36.98378753662109</v>
+        <v>36.98377990722656</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>8.108255386352539</v>
+        <v>8.10825252532959</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>14.51455307006836</v>
+        <v>14.51455116271973</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>18.83494758605957</v>
+        <v>18.83495330810547</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>16.40367126464844</v>
+        <v>16.40366744995117</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>11.19492530822754</v>
+        <v>11.19491863250732</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>8.494935989379883</v>
+        <v>8.494936943054199</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>16.94327163696289</v>
+        <v>16.94326782226562</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>28.07346725463867</v>
+        <v>28.07345771789551</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>10.74668979644775</v>
+        <v>10.7466869354248</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>11.281813621521</v>
+        <v>11.28181552886963</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>64.57098388671875</v>
+        <v>64.57099151611328</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>13.78353309631348</v>
+        <v>13.78353118896484</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>17.40460586547852</v>
+        <v>17.40460777282715</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>31.70296478271484</v>
+        <v>31.70296096801758</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>11.05237579345703</v>
+        <v>11.05237865447998</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>41.46406173706055</v>
+        <v>41.46405792236328</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>36.45261383056641</v>
+        <v>36.45261001586914</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>19.81886100769043</v>
+        <v>19.8188648223877</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>9.645190238952637</v>
+        <v>9.64519214630127</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>15.05052852630615</v>
+        <v>15.05052947998047</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>18.10699844360352</v>
+        <v>18.10700035095215</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>23.31740570068359</v>
+        <v>23.31741142272949</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>30.17190933227539</v>
+        <v>30.17190551757812</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>24.90382385253906</v>
+        <v>24.90383148193359</v>
       </c>
     </row>
     <row r="99" spans="1:6">
